--- a/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik juli 2024.xlsx
+++ b/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik juli 2024.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -559,7 +559,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
@@ -571,25 +571,19 @@
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -618,7 +612,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,7 +671,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -693,11 +687,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0BBC7E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -739,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="2" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -808,10 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -819,29 +804,39 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2943,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3DF606-E09D-4E23-97D5-C6FB88843390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2AB1E8-C783-4C4D-8443-4B14495CA5FA}">
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3279,7 +3274,7 @@
       <c r="G15" s="30">
         <v>2188</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="42" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3306,9 +3301,6 @@
       <c r="G16" s="31">
         <v>250.05</v>
       </c>
-      <c r="H16" s="44" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
@@ -3797,7 +3789,7 @@
       <c r="B37" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="35" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="28">
@@ -3962,7 +3954,7 @@
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="38">
         <v>3100</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -3970,11 +3962,11 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="41">
+      <c r="F44" s="39">
         <f>SUM(F7:F43)</f>
         <v>1186</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="40">
         <f>SUM(G7:G43)</f>
         <v>59002.63</v>
       </c>
@@ -4662,7 +4654,7 @@
       <c r="B74" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="41" t="s">
         <v>160</v>
       </c>
       <c r="D74" s="28">
@@ -4683,7 +4675,7 @@
       <c r="A75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="40">
+      <c r="B75" s="38">
         <v>3100</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -4691,11 +4683,11 @@
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="41">
+      <c r="F75" s="39">
         <f>SUM(F47:F74)</f>
         <v>1487</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="40">
         <f>SUM(G47:G74)</f>
         <v>51062.53000000001</v>
       </c>
@@ -4725,11 +4717,11 @@
         <v>161</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="41">
+      <c r="F77" s="39">
         <f>+F44+F75</f>
         <v>2673</v>
       </c>
-      <c r="G77" s="42">
+      <c r="G77" s="40">
         <f>+G44+G75</f>
         <v>110065.16</v>
       </c>
@@ -4742,11 +4734,11 @@
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="45">
+      <c r="F78" s="43">
         <f>+F75/F77</f>
         <v>0.5563037785260008</v>
       </c>
-      <c r="G78" s="45">
+      <c r="G78" s="43">
         <f>+G75/G77</f>
         <v>0.4639300029182714</v>
       </c>
@@ -4758,7 +4750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1730317-F5E5-4932-809D-3DEBB63E6AA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3977305C-202A-4277-B8D3-944FAB36EC50}">
   <dimension ref="A2:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4816,20 +4808,20 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="D6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="51" t="s">
+      <c r="F6" s="51" t="s">
         <v>182</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>183</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -4839,10 +4831,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5">
@@ -4851,7 +4843,7 @@
       <c r="E7" s="52">
         <v>21</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="54">
         <f>+D7*E7</f>
         <v>105</v>
       </c>
@@ -4863,10 +4855,10 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5">
@@ -4875,7 +4867,7 @@
       <c r="E8" s="52">
         <v>2</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="54">
         <f ref="F8:F43" t="shared" si="0">+D8*E8</f>
         <v>6</v>
       </c>
@@ -4887,10 +4879,10 @@
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="5">
@@ -4899,7 +4891,7 @@
       <c r="E9" s="52">
         <v>2</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="54">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4911,10 +4903,10 @@
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5">
@@ -4923,7 +4915,7 @@
       <c r="E10" s="52">
         <v>1</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4935,10 +4927,10 @@
       <c r="A11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="5">
@@ -4947,7 +4939,7 @@
       <c r="E11" s="52">
         <v>8</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="54">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -4959,10 +4951,10 @@
       <c r="A12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="5">
@@ -4971,7 +4963,7 @@
       <c r="E12" s="52">
         <v>2</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="54">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4983,10 +4975,10 @@
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="5">
@@ -4995,7 +4987,7 @@
       <c r="E13" s="52">
         <v>1</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5007,10 +4999,10 @@
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="49" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="5">
@@ -5019,7 +5011,7 @@
       <c r="E14" s="52">
         <v>2</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="54">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5031,10 +5023,10 @@
       <c r="A15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="49" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5">
@@ -5043,7 +5035,7 @@
       <c r="E15" s="52">
         <v>10</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="54">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -5055,10 +5047,10 @@
       <c r="A16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5">
@@ -5067,7 +5059,7 @@
       <c r="E16" s="52">
         <v>5</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5079,10 +5071,10 @@
       <c r="A17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="49" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="5">
@@ -5091,7 +5083,7 @@
       <c r="E17" s="52">
         <v>13</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="54">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -5103,10 +5095,10 @@
       <c r="A18" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="5">
@@ -5115,7 +5107,7 @@
       <c r="E18" s="52">
         <v>11</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="54">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -5127,10 +5119,10 @@
       <c r="A19" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="5">
@@ -5139,7 +5131,7 @@
       <c r="E19" s="52">
         <v>4</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="54">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5151,10 +5143,10 @@
       <c r="A20" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="5">
@@ -5163,7 +5155,7 @@
       <c r="E20" s="52">
         <v>6</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="54">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -5175,10 +5167,10 @@
       <c r="A21" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="5">
@@ -5187,7 +5179,7 @@
       <c r="E21" s="52">
         <v>3</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="54">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -5199,10 +5191,10 @@
       <c r="A22" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="5">
@@ -5211,7 +5203,7 @@
       <c r="E22" s="52">
         <v>9</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="54">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -5223,10 +5215,10 @@
       <c r="A23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="5">
@@ -5235,7 +5227,7 @@
       <c r="E23" s="52">
         <v>3</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5247,10 +5239,10 @@
       <c r="A24" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="5">
@@ -5259,7 +5251,7 @@
       <c r="E24" s="52">
         <v>6</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="54">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -5271,10 +5263,10 @@
       <c r="A25" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="5">
@@ -5283,7 +5275,7 @@
       <c r="E25" s="52">
         <v>4</v>
       </c>
-      <c r="F25" s="53">
+      <c r="F25" s="54">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5295,10 +5287,10 @@
       <c r="A26" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="49" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="5">
@@ -5307,7 +5299,7 @@
       <c r="E26" s="52">
         <v>3</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5319,10 +5311,10 @@
       <c r="A27" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="49" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="5">
@@ -5331,7 +5323,7 @@
       <c r="E27" s="52">
         <v>10</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="54">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5343,10 +5335,10 @@
       <c r="A28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="5">
@@ -5355,7 +5347,7 @@
       <c r="E28" s="52">
         <v>3</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F28" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5367,10 +5359,10 @@
       <c r="A29" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="5">
@@ -5379,7 +5371,7 @@
       <c r="E29" s="52">
         <v>2</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="54">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5391,10 +5383,10 @@
       <c r="A30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="49" t="s">
         <v>66</v>
       </c>
       <c r="D30" s="5">
@@ -5403,7 +5395,7 @@
       <c r="E30" s="52">
         <v>2</v>
       </c>
-      <c r="F30" s="53">
+      <c r="F30" s="54">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5415,10 +5407,10 @@
       <c r="A31" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="49" t="s">
         <v>68</v>
       </c>
       <c r="D31" s="5">
@@ -5427,7 +5419,7 @@
       <c r="E31" s="52">
         <v>8</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="54">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -5439,10 +5431,10 @@
       <c r="A32" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="49" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="5">
@@ -5451,7 +5443,7 @@
       <c r="E32" s="52">
         <v>2</v>
       </c>
-      <c r="F32" s="53">
+      <c r="F32" s="54">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5463,10 +5455,10 @@
       <c r="A33" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="5">
@@ -5475,7 +5467,7 @@
       <c r="E33" s="52">
         <v>3</v>
       </c>
-      <c r="F33" s="53">
+      <c r="F33" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5487,10 +5479,10 @@
       <c r="A34" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="49" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="5">
@@ -5499,7 +5491,7 @@
       <c r="E34" s="52">
         <v>3</v>
       </c>
-      <c r="F34" s="53">
+      <c r="F34" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5511,10 +5503,10 @@
       <c r="A35" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="49" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="5">
@@ -5523,7 +5515,7 @@
       <c r="E35" s="52">
         <v>3</v>
       </c>
-      <c r="F35" s="53">
+      <c r="F35" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5535,10 +5527,10 @@
       <c r="A36" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="49" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="5">
@@ -5547,7 +5539,7 @@
       <c r="E36" s="52">
         <v>14</v>
       </c>
-      <c r="F36" s="53">
+      <c r="F36" s="54">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -5559,19 +5551,19 @@
       <c r="A37" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="49" t="s">
         <v>82</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="52">
         <v>2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="54">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5583,19 +5575,19 @@
       <c r="A38" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="49" t="s">
         <v>85</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="52">
         <v>10</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="54">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5607,19 +5599,19 @@
       <c r="A39" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="49" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="E39" s="3">
-        <v>5</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" s="52">
+        <v>5</v>
+      </c>
+      <c r="F39" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5631,19 +5623,19 @@
       <c r="A40" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="49" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="52">
+        <v>3</v>
+      </c>
+      <c r="F40" s="54">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -5655,19 +5647,19 @@
       <c r="A41" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="49" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="52">
         <v>480</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="54">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
@@ -5679,19 +5671,19 @@
       <c r="A42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="49" t="s">
         <v>94</v>
       </c>
       <c r="D42" s="5">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="52">
+        <v>5</v>
+      </c>
+      <c r="F42" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5703,19 +5695,19 @@
       <c r="A43" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="49" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="5">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="52">
         <v>15</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="54">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
@@ -5727,15 +5719,15 @@
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="47">
         <v>3100</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="50" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4">
+      <c r="E44" s="53"/>
+      <c r="F44" s="55">
         <f>SUM(F7:F43)</f>
         <v>1186</v>
       </c>
@@ -5753,20 +5745,20 @@
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="44" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="51" t="s">
         <v>182</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>183</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>10</v>
@@ -5776,10 +5768,10 @@
       <c r="A47" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="50" t="s">
+      <c r="C47" s="49" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="5">
@@ -5788,7 +5780,7 @@
       <c r="E47" s="52">
         <v>156</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F47" s="54">
         <f ref="F47:F74" t="shared" si="1">+D47*E47</f>
         <v>780</v>
       </c>
@@ -5800,10 +5792,10 @@
       <c r="A48" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="49" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="5">
@@ -5812,7 +5804,7 @@
       <c r="E48" s="52">
         <v>1</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F48" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5824,10 +5816,10 @@
       <c r="A49" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="5">
@@ -5836,7 +5828,7 @@
       <c r="E49" s="52">
         <v>3</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F49" s="54">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5848,10 +5840,10 @@
       <c r="A50" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="49" t="s">
         <v>107</v>
       </c>
       <c r="D50" s="5">
@@ -5860,7 +5852,7 @@
       <c r="E50" s="52">
         <v>4</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F50" s="54">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5872,10 +5864,10 @@
       <c r="A51" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="50" t="s">
+      <c r="C51" s="49" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="5">
@@ -5884,7 +5876,7 @@
       <c r="E51" s="52">
         <v>2</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F51" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5896,10 +5888,10 @@
       <c r="A52" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="49" t="s">
         <v>111</v>
       </c>
       <c r="D52" s="5">
@@ -5908,7 +5900,7 @@
       <c r="E52" s="52">
         <v>2</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F52" s="54">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5920,10 +5912,10 @@
       <c r="A53" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="49" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="5">
@@ -5932,7 +5924,7 @@
       <c r="E53" s="52">
         <v>2</v>
       </c>
-      <c r="F53" s="53">
+      <c r="F53" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5944,10 +5936,10 @@
       <c r="A54" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="49" t="s">
         <v>117</v>
       </c>
       <c r="D54" s="5">
@@ -5956,7 +5948,7 @@
       <c r="E54" s="52">
         <v>19</v>
       </c>
-      <c r="F54" s="53">
+      <c r="F54" s="54">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -5968,10 +5960,10 @@
       <c r="A55" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="49" t="s">
         <v>119</v>
       </c>
       <c r="D55" s="5">
@@ -5980,7 +5972,7 @@
       <c r="E55" s="52">
         <v>11</v>
       </c>
-      <c r="F55" s="53">
+      <c r="F55" s="54">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -5992,10 +5984,10 @@
       <c r="A56" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="49" t="s">
         <v>122</v>
       </c>
       <c r="D56" s="5">
@@ -6004,7 +5996,7 @@
       <c r="E56" s="52">
         <v>4</v>
       </c>
-      <c r="F56" s="53">
+      <c r="F56" s="54">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6016,10 +6008,10 @@
       <c r="A57" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="49" t="s">
         <v>124</v>
       </c>
       <c r="D57" s="5">
@@ -6028,7 +6020,7 @@
       <c r="E57" s="52">
         <v>4</v>
       </c>
-      <c r="F57" s="53">
+      <c r="F57" s="54">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -6040,10 +6032,10 @@
       <c r="A58" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="49" t="s">
         <v>126</v>
       </c>
       <c r="D58" s="5">
@@ -6052,7 +6044,7 @@
       <c r="E58" s="52">
         <v>12</v>
       </c>
-      <c r="F58" s="53">
+      <c r="F58" s="54">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -6064,10 +6056,10 @@
       <c r="A59" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="49" t="s">
         <v>128</v>
       </c>
       <c r="D59" s="5">
@@ -6076,7 +6068,7 @@
       <c r="E59" s="52">
         <v>2</v>
       </c>
-      <c r="F59" s="53">
+      <c r="F59" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6088,10 +6080,10 @@
       <c r="A60" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="49" t="s">
         <v>130</v>
       </c>
       <c r="D60" s="5">
@@ -6100,7 +6092,7 @@
       <c r="E60" s="52">
         <v>2</v>
       </c>
-      <c r="F60" s="53">
+      <c r="F60" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6112,10 +6104,10 @@
       <c r="A61" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="49" t="s">
         <v>132</v>
       </c>
       <c r="D61" s="5">
@@ -6124,7 +6116,7 @@
       <c r="E61" s="52">
         <v>7</v>
       </c>
-      <c r="F61" s="53">
+      <c r="F61" s="54">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -6136,10 +6128,10 @@
       <c r="A62" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="49" t="s">
         <v>134</v>
       </c>
       <c r="D62" s="5">
@@ -6148,7 +6140,7 @@
       <c r="E62" s="52">
         <v>3</v>
       </c>
-      <c r="F62" s="53">
+      <c r="F62" s="54">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -6160,10 +6152,10 @@
       <c r="A63" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="49" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="5">
@@ -6172,7 +6164,7 @@
       <c r="E63" s="52">
         <v>2</v>
       </c>
-      <c r="F63" s="53">
+      <c r="F63" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6184,10 +6176,10 @@
       <c r="A64" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="49" t="s">
         <v>138</v>
       </c>
       <c r="D64" s="5">
@@ -6196,7 +6188,7 @@
       <c r="E64" s="52">
         <v>2</v>
       </c>
-      <c r="F64" s="53">
+      <c r="F64" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6208,10 +6200,10 @@
       <c r="A65" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="49" t="s">
         <v>140</v>
       </c>
       <c r="D65" s="5">
@@ -6220,7 +6212,7 @@
       <c r="E65" s="52">
         <v>2</v>
       </c>
-      <c r="F65" s="53">
+      <c r="F65" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6232,10 +6224,10 @@
       <c r="A66" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="49" t="s">
         <v>142</v>
       </c>
       <c r="D66" s="5">
@@ -6244,7 +6236,7 @@
       <c r="E66" s="52">
         <v>20</v>
       </c>
-      <c r="F66" s="53">
+      <c r="F66" s="54">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6256,10 +6248,10 @@
       <c r="A67" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C67" s="49" t="s">
         <v>145</v>
       </c>
       <c r="D67" s="5">
@@ -6268,7 +6260,7 @@
       <c r="E67" s="52">
         <v>6</v>
       </c>
-      <c r="F67" s="53">
+      <c r="F67" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6280,10 +6272,10 @@
       <c r="A68" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="49" t="s">
         <v>147</v>
       </c>
       <c r="D68" s="5">
@@ -6292,7 +6284,7 @@
       <c r="E68" s="52">
         <v>6</v>
       </c>
-      <c r="F68" s="53">
+      <c r="F68" s="54">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6304,10 +6296,10 @@
       <c r="A69" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="49" t="s">
         <v>149</v>
       </c>
       <c r="D69" s="5">
@@ -6316,7 +6308,7 @@
       <c r="E69" s="52">
         <v>3</v>
       </c>
-      <c r="F69" s="53">
+      <c r="F69" s="54">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -6328,10 +6320,10 @@
       <c r="A70" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="49" t="s">
         <v>151</v>
       </c>
       <c r="D70" s="5">
@@ -6340,7 +6332,7 @@
       <c r="E70" s="52">
         <v>6</v>
       </c>
-      <c r="F70" s="53">
+      <c r="F70" s="54">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -6352,10 +6344,10 @@
       <c r="A71" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="49" t="s">
         <v>153</v>
       </c>
       <c r="D71" s="5">
@@ -6364,7 +6356,7 @@
       <c r="E71" s="52">
         <v>8</v>
       </c>
-      <c r="F71" s="53">
+      <c r="F71" s="54">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -6376,10 +6368,10 @@
       <c r="A72" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="49" t="s">
         <v>155</v>
       </c>
       <c r="D72" s="5">
@@ -6388,7 +6380,7 @@
       <c r="E72" s="52">
         <v>10</v>
       </c>
-      <c r="F72" s="53">
+      <c r="F72" s="54">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -6400,10 +6392,10 @@
       <c r="A73" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="49" t="s">
         <v>157</v>
       </c>
       <c r="D73" s="5">
@@ -6412,7 +6404,7 @@
       <c r="E73" s="52">
         <v>24</v>
       </c>
-      <c r="F73" s="53">
+      <c r="F73" s="54">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -6424,10 +6416,10 @@
       <c r="A74" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="49" t="s">
         <v>160</v>
       </c>
       <c r="D74" s="5">
@@ -6436,7 +6428,7 @@
       <c r="E74" s="52">
         <v>76</v>
       </c>
-      <c r="F74" s="53">
+      <c r="F74" s="54">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
@@ -6448,15 +6440,15 @@
       <c r="A75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="47">
         <v>3100</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="50" t="s">
         <v>98</v>
       </c>
       <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="4">
+      <c r="E75" s="53"/>
+      <c r="F75" s="55">
         <f>SUM(F47:F74)</f>
         <v>1487</v>
       </c>
